--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N2">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q2">
-        <v>201.365763253873</v>
+        <v>158.3623237234662</v>
       </c>
       <c r="R2">
-        <v>1812.291869284857</v>
+        <v>1425.260913511196</v>
       </c>
       <c r="S2">
-        <v>0.01123553394630588</v>
+        <v>0.008066134918526745</v>
       </c>
       <c r="T2">
-        <v>0.01123553394630588</v>
+        <v>0.008066134918526743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>81.076077</v>
       </c>
       <c r="O3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q3">
-        <v>4388.899302772623</v>
+        <v>5443.981362434284</v>
       </c>
       <c r="R3">
-        <v>39500.0937249536</v>
+        <v>48995.83226190856</v>
       </c>
       <c r="S3">
-        <v>0.2448858550053025</v>
+        <v>0.2772874704719497</v>
       </c>
       <c r="T3">
-        <v>0.2448858550053025</v>
+        <v>0.2772874704719497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N4">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q4">
-        <v>2409.747839795661</v>
+        <v>3872.630572935266</v>
       </c>
       <c r="R4">
-        <v>21687.73055816095</v>
+        <v>34853.67515641739</v>
       </c>
       <c r="S4">
-        <v>0.1344558440251172</v>
+        <v>0.1972512145341716</v>
       </c>
       <c r="T4">
-        <v>0.1344558440251172</v>
+        <v>0.1972512145341716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N5">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q5">
-        <v>8.243063517125998</v>
+        <v>14.63056850988</v>
       </c>
       <c r="R5">
-        <v>74.18757165413399</v>
+        <v>131.67511658892</v>
       </c>
       <c r="S5">
-        <v>0.0004599352862753515</v>
+        <v>0.0007452033839912249</v>
       </c>
       <c r="T5">
-        <v>0.0004599352862753515</v>
+        <v>0.0007452033839912249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N6">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O6">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P6">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q6">
-        <v>81.11375978530423</v>
+        <v>51.42801387321756</v>
       </c>
       <c r="R6">
-        <v>730.0238380677379</v>
+        <v>462.852124858958</v>
       </c>
       <c r="S6">
-        <v>0.00452587563473384</v>
+        <v>0.002619469636083453</v>
       </c>
       <c r="T6">
-        <v>0.00452587563473384</v>
+        <v>0.002619469636083452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>81.076077</v>
       </c>
       <c r="O7">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P7">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q7">
         <v>1767.927764950582</v>
@@ -883,10 +883,10 @@
         <v>15911.34988455524</v>
       </c>
       <c r="S7">
-        <v>0.09864443734993716</v>
+        <v>0.09004884206676821</v>
       </c>
       <c r="T7">
-        <v>0.09864443734993716</v>
+        <v>0.09004884206676821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N8">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O8">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P8">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q8">
-        <v>970.6898742956074</v>
+        <v>1257.63309193757</v>
       </c>
       <c r="R8">
-        <v>8736.208868660466</v>
+        <v>11318.69782743813</v>
       </c>
       <c r="S8">
-        <v>0.05416123802651403</v>
+        <v>0.06405714414298665</v>
       </c>
       <c r="T8">
-        <v>0.05416123802651403</v>
+        <v>0.06405714414298665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N9">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O9">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P9">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q9">
-        <v>3.320454595750667</v>
+        <v>4.75126319574</v>
       </c>
       <c r="R9">
-        <v>29.884091361756</v>
+        <v>42.76136876166</v>
       </c>
       <c r="S9">
-        <v>0.0001852702253097955</v>
+        <v>0.0002420040895408411</v>
       </c>
       <c r="T9">
-        <v>0.0001852702253097955</v>
+        <v>0.0002420040895408411</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N10">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O10">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P10">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q10">
-        <v>75.86015181101632</v>
+        <v>47.51099152882978</v>
       </c>
       <c r="R10">
-        <v>682.7413662991469</v>
+        <v>427.5989237594681</v>
       </c>
       <c r="S10">
-        <v>0.004232741937218059</v>
+        <v>0.00241995734069754</v>
       </c>
       <c r="T10">
-        <v>0.00423274193721806</v>
+        <v>0.00241995734069754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>81.076077</v>
       </c>
       <c r="O11">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P11">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q11">
-        <v>1653.421922433933</v>
+        <v>1633.273283141372</v>
       </c>
       <c r="R11">
-        <v>14880.7973019054</v>
+        <v>14699.45954827235</v>
       </c>
       <c r="S11">
-        <v>0.09225539553936798</v>
+        <v>0.08319025858479037</v>
       </c>
       <c r="T11">
-        <v>0.092255395539368</v>
+        <v>0.08319025858479037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N12">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O12">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P12">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q12">
-        <v>907.819849805831</v>
+        <v>1161.845279981519</v>
       </c>
       <c r="R12">
-        <v>8170.378648252478</v>
+        <v>10456.60751983367</v>
       </c>
       <c r="S12">
-        <v>0.05065330160800084</v>
+        <v>0.05917822220864345</v>
       </c>
       <c r="T12">
-        <v>0.05065330160800085</v>
+        <v>0.05917822220864345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N13">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O13">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P13">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q13">
-        <v>3.105394083346</v>
+        <v>4.38938252604</v>
       </c>
       <c r="R13">
-        <v>27.948546750114</v>
+        <v>39.50444273436</v>
       </c>
       <c r="S13">
-        <v>0.0001732705703109158</v>
+        <v>0.0002235718119790129</v>
       </c>
       <c r="T13">
-        <v>0.0001732705703109158</v>
+        <v>0.0002235718119790129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N14">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O14">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P14">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q14">
-        <v>156.6133260329345</v>
+        <v>70.33354433418057</v>
       </c>
       <c r="R14">
-        <v>1409.51993429641</v>
+        <v>633.0018990076251</v>
       </c>
       <c r="S14">
-        <v>0.008738498107388975</v>
+        <v>0.003582416856223592</v>
       </c>
       <c r="T14">
-        <v>0.008738498107388977</v>
+        <v>0.003582416856223592</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>81.076077</v>
       </c>
       <c r="O15">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P15">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q15">
-        <v>3413.49048777599</v>
+        <v>2417.838381671125</v>
       </c>
       <c r="R15">
-        <v>30721.41438998391</v>
+        <v>21760.54543504013</v>
       </c>
       <c r="S15">
-        <v>0.1904613159211498</v>
+        <v>0.1231518339665645</v>
       </c>
       <c r="T15">
-        <v>0.1904613159211498</v>
+        <v>0.1231518339665645</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N16">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O16">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P16">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q16">
-        <v>1874.194589947597</v>
+        <v>1719.953507167973</v>
       </c>
       <c r="R16">
-        <v>16867.75130952837</v>
+        <v>15479.58156451175</v>
       </c>
       <c r="S16">
-        <v>0.1045737696273155</v>
+        <v>0.0876052884058202</v>
       </c>
       <c r="T16">
-        <v>0.1045737696273155</v>
+        <v>0.0876052884058202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N17">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O17">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P17">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q17">
-        <v>6.411087829713333</v>
+        <v>6.497882291250001</v>
       </c>
       <c r="R17">
-        <v>57.69979046742</v>
+        <v>58.48094062125001</v>
       </c>
       <c r="S17">
-        <v>0.0003577171897522516</v>
+        <v>0.0003309675812629014</v>
       </c>
       <c r="T17">
-        <v>0.0003577171897522517</v>
+        <v>0.0003309675812629014</v>
       </c>
     </row>
   </sheetData>
